--- a/data/trans_camb/P19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>7.911524412660525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19.36823038560479</v>
+        <v>19.36823038560478</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.380148309383862</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.305812454579467</v>
+        <v>-8.790224790558522</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.006849208057973</v>
+        <v>1.132078318608123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.11662798150579</v>
+        <v>8.589143978557175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.866381031858348</v>
+        <v>-8.343487571006843</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.815198926763034</v>
+        <v>-1.717164718688816</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.610664008896768</v>
+        <v>5.022529135185466</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.808665699566001</v>
+        <v>-7.078073405971522</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.851510006651488</v>
+        <v>1.588888998339948</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.27664781494542</v>
+        <v>9.545893578127613</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.632771503403272</v>
+        <v>4.57157572598202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.89041447090688</v>
+        <v>14.41129118478602</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28.93246601633468</v>
+        <v>27.66491957870483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.349427173030517</v>
+        <v>4.534600966415543</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.78809923473585</v>
+        <v>11.72406051651897</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.18946007511145</v>
+        <v>21.63115588575377</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.954248006450014</v>
+        <v>2.026226330377592</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.83758209298029</v>
+        <v>11.06822846870793</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.87003360843732</v>
+        <v>22.65577327956009</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3097635807441796</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7583332976034638</v>
+        <v>0.7583332976034634</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.08273702498412949</v>
@@ -769,7 +769,7 @@
         <v>0.2347650408857108</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.6025918703086045</v>
+        <v>0.6025918703086044</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2867352558868599</v>
+        <v>-0.2994449355931877</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03653360856620243</v>
+        <v>0.033148773069315</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.362125971934038</v>
+        <v>0.3119163829969555</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2783557904496877</v>
+        <v>-0.2627696253486093</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05932241997135802</v>
+        <v>-0.05405146182507589</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1501401603758761</v>
+        <v>0.1726058840733827</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2314057246366179</v>
+        <v>-0.238096791266641</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0623745528094556</v>
+        <v>0.05367846641977158</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3582139991320806</v>
+        <v>0.3278556160207178</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1743153532923818</v>
+        <v>0.1960222981235512</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6665180152161549</v>
+        <v>0.6483077359435742</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.295587245848154</v>
+        <v>1.247003008157158</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.167788669488143</v>
+        <v>0.1718858000836247</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4589895671092292</v>
+        <v>0.4543839462141231</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8746702005481016</v>
+        <v>0.8299526804097577</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.082488806068653</v>
+        <v>0.08073675414940115</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4512755766137749</v>
+        <v>0.4514263412027464</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9134377552884674</v>
+        <v>0.897321760635272</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.823944816662589</v>
+        <v>-8.990938410543805</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.974633474259506</v>
+        <v>-3.82850456109874</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.504533538751561</v>
+        <v>9.219776702197263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.987599212872633</v>
+        <v>-7.248776549858131</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.124474260916789</v>
+        <v>-5.489163258731783</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.308677323031967</v>
+        <v>9.176602497327789</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.407447789255135</v>
+        <v>-6.792465625751889</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.579644813445667</v>
+        <v>-3.817424628983307</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>11.2827187652799</v>
+        <v>10.99384927425438</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.704634032900273</v>
+        <v>2.515314183637734</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.93861376633039</v>
+        <v>7.520987780864788</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.87275599677712</v>
+        <v>23.74494314503045</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.05117384992654</v>
+        <v>3.938203094261333</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.858033189686397</v>
+        <v>6.930532064154926</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.24632337925411</v>
+        <v>21.46507629198261</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.424829788322975</v>
+        <v>1.62142254886577</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.916012153262963</v>
+        <v>4.893440255186741</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.07577338496178</v>
+        <v>20.86806398435096</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2143655211066446</v>
+        <v>-0.2107830173808675</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.09731774774009441</v>
+        <v>-0.09379807027289366</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2200353582648887</v>
+        <v>0.2260705182019755</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1937707014649174</v>
+        <v>-0.1802385372711321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1470606000735403</v>
+        <v>-0.1351099548720113</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2280397118018932</v>
+        <v>0.2316814428517912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1610122199059389</v>
+        <v>-0.1648643272251017</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08861939646377311</v>
+        <v>-0.09785235043274247</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2767726920068527</v>
+        <v>0.2739174507045398</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.07462806306733326</v>
+        <v>0.06846280366748829</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2199261257256049</v>
+        <v>0.2129816110887763</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6553303633781329</v>
+        <v>0.6752457349508721</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1139025821715347</v>
+        <v>0.1137014418871671</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1661397299523008</v>
+        <v>0.1958768179848143</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6300798159236615</v>
+        <v>0.6160838080031852</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03947419531354135</v>
+        <v>0.04191643661423877</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1352737444659209</v>
+        <v>0.135913282552632</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5742986176443906</v>
+        <v>0.5729660973207797</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.335808257427385</v>
+        <v>-2.679979662237937</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1836517878566069</v>
+        <v>0.6571508336081339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.29686347510582</v>
+        <v>12.3996375817422</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4947625204477864</v>
+        <v>-0.1685279672199511</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.944399137972946</v>
+        <v>4.46928686710587</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.86961047502498</v>
+        <v>16.83634471025704</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.005141782428360725</v>
+        <v>0.3751450805519106</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.624832995120666</v>
+        <v>4.442747321390115</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.41992399028345</v>
+        <v>16.43263125538853</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.927533475400795</v>
+        <v>9.47114504470273</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.69929300875833</v>
+        <v>12.58138931248341</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.13089312591522</v>
+        <v>24.58728148468449</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.99212394994531</v>
+        <v>11.05514677486101</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.1810259104972</v>
+        <v>15.85514094866409</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.63073383189457</v>
+        <v>27.12480940305447</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.872549854182676</v>
+        <v>8.557675018118136</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.02010611629036</v>
+        <v>12.37428571838972</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>24.58196762542985</v>
+        <v>24.29676849750684</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08687857957575826</v>
+        <v>-0.07265677360138664</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.001794422139581699</v>
+        <v>0.0118731886406568</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3152157942323033</v>
+        <v>0.3124337326208085</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01474370531415754</v>
+        <v>-0.006673557722958989</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1386925368651478</v>
+        <v>0.1235200162950579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4519262385005732</v>
+        <v>0.4466269101564602</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.002318912406468639</v>
+        <v>0.009035908274298328</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1238645672576311</v>
+        <v>0.1218669765865651</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4351579482445685</v>
+        <v>0.447897981088192</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2674281923042796</v>
+        <v>0.2980630435233376</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3875967632146833</v>
+        <v>0.3867893415931753</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7782974476189441</v>
+        <v>0.7534277806773625</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3530326569121657</v>
+        <v>0.3526992631372504</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5219416541568497</v>
+        <v>0.5115141287157983</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.889066285160529</v>
+        <v>0.8831214078296373</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2334333626889585</v>
+        <v>0.2524362715439895</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.399777712146508</v>
+        <v>0.3785695363288845</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7553857207576875</v>
+        <v>0.7475313690628324</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.410258036117189</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19.10736550791304</v>
+        <v>19.10736550791305</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.645084956315395</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.58480294740262</v>
+        <v>-3.799222634719464</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.0697588450017171</v>
+        <v>-0.4283323292690173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.58556902312935</v>
+        <v>13.00337465363852</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8842616988852043</v>
+        <v>0.8749953260643178</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.896479071517184</v>
+        <v>4.65392643959619</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.99112072003703</v>
+        <v>16.66963104247532</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7968208845486127</v>
+        <v>0.3937610762884259</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.638245352907375</v>
+        <v>4.323215732933941</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>16.39375757274086</v>
+        <v>16.36776622732399</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.55928346535314</v>
+        <v>8.942015729026878</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.29211955361208</v>
+        <v>12.49548241478664</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24.94667711330933</v>
+        <v>24.50796965767278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.08982796662839</v>
+        <v>13.51587679449118</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>17.89069596657411</v>
+        <v>17.32810431984303</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.65265256604204</v>
+        <v>27.01156315633163</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.814657958694244</v>
+        <v>9.558743960256169</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.47174893690368</v>
+        <v>13.65135246128108</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>24.72833899317026</v>
+        <v>24.74421101764107</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2074280392940202</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6182907678676376</v>
+        <v>0.6182907678676379</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2059304300532676</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1024668729567479</v>
+        <v>-0.1126403854594912</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.001501962561957733</v>
+        <v>-0.01428222527726875</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3609283841323524</v>
+        <v>0.3719804488737641</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02585787821982983</v>
+        <v>0.02240765900294883</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1355274486686622</v>
+        <v>0.1273058122053806</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4376611404336047</v>
+        <v>0.4497506327374537</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02207228560634045</v>
+        <v>0.009768655974434496</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1337283872711689</v>
+        <v>0.1250727519305958</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4723072540985847</v>
+        <v>0.4668853228678618</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3640212114021418</v>
+        <v>0.3260117221693383</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5018033859941919</v>
+        <v>0.4613377320044058</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9129597320882885</v>
+        <v>0.9112464287262628</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4521663359308691</v>
+        <v>0.4964230907923655</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6062927553747576</v>
+        <v>0.5940332932580055</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9216925973120372</v>
+        <v>0.9437738885999657</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.332915431516119</v>
+        <v>0.3256399743989711</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4605408821583386</v>
+        <v>0.4740652526116454</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8500757109942692</v>
+        <v>0.8631246101314357</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>8.765165569537967</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26.78545490785553</v>
+        <v>26.78545490785552</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.809653330108353</v>
@@ -1511,7 +1511,7 @@
         <v>9.672601356578348</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>26.39478241060138</v>
+        <v>26.39478241060137</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.924204901891024</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.941183462830531</v>
+        <v>-2.501047293332626</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.746057685988834</v>
+        <v>1.65424908066359</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20.43826629448413</v>
+        <v>20.19697366361223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.939323182728422</v>
+        <v>-3.034826183548666</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.64993369950267</v>
+        <v>2.585542001339509</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>21.14474818214148</v>
+        <v>20.06918535034549</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.5831911613343987</v>
+        <v>-1.170288948910495</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.448857006896935</v>
+        <v>4.350530719602947</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>21.60426784819738</v>
+        <v>21.66103476305025</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.46823532028278</v>
+        <v>11.41953367626349</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.10058501322516</v>
+        <v>15.43674505694442</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32.93628453246409</v>
+        <v>32.49450110559296</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.560195912806</v>
+        <v>10.15066860935165</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>16.48713169390793</v>
+        <v>16.94472919625813</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>33.11249649686888</v>
+        <v>31.23886189487042</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.775933446880167</v>
+        <v>8.837293828758897</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.92004639004933</v>
+        <v>14.05528772019475</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>30.22803298859812</v>
+        <v>30.44479739529056</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3862810372728451</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.054091195562812</v>
+        <v>1.054091195562811</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1749187648579159</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.09127925847034786</v>
+        <v>-0.1176722331888066</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.077686604537525</v>
+        <v>0.06419702230638519</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8166918371508667</v>
+        <v>0.8508739500357116</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1034070521813872</v>
+        <v>-0.1053308469520685</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08751923012281489</v>
+        <v>0.08221801895252752</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7396738108940685</v>
+        <v>0.6767665655341997</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.02462099778135626</v>
+        <v>-0.04989514333288533</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1785728796204736</v>
+        <v>0.1706870038584014</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8556374277003399</v>
+        <v>0.8278606447047151</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6560622105897993</v>
+        <v>0.6999037228835407</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9444693823644931</v>
+        <v>0.9643592148514258</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.142980735908473</v>
+        <v>2.144555583869355</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5441939916797235</v>
+        <v>0.4597737702246593</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7754663825959941</v>
+        <v>0.7754548503604541</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.689174478625</v>
+        <v>1.481475658220544</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4549390537364365</v>
+        <v>0.4306051395446931</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7025216911719636</v>
+        <v>0.7094420717995864</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.522120097854414</v>
+        <v>1.577146882081275</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>12.12780373237152</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>28.25637549339918</v>
+        <v>28.25637549339919</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.608262705753269</v>
+        <v>-2.297416861346898</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.157575739419331</v>
+        <v>5.123199197837859</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24.80336116481399</v>
+        <v>24.96753879798209</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.468645200776159</v>
+        <v>-5.870976468413389</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>5.265176113786181</v>
+        <v>4.663875919811292</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>20.07291212064155</v>
+        <v>19.78926886849728</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.269104676367836</v>
+        <v>-2.206631389898391</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>7.215649178768219</v>
+        <v>7.335512386554295</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>24.03681281097932</v>
+        <v>24.01595310966676</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.37664933103889</v>
+        <v>10.00520641530815</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>18.65045567682162</v>
+        <v>18.56319135773116</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36.22181486503295</v>
+        <v>35.70627674781847</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.494202164035332</v>
+        <v>7.576962034687608</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>20.09081657388321</v>
+        <v>20.21221442102952</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>32.130253700484</v>
+        <v>31.54040817650198</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.704436909899905</v>
+        <v>6.794494762735412</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>17.44890334623559</v>
+        <v>17.03029346415132</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>32.21443136187371</v>
+        <v>32.08382635634066</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1458912976462969</v>
+        <v>-0.1767584189900868</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.391625530088094</v>
+        <v>0.393737652393889</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.687026801902924</v>
+        <v>1.809565813682167</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2992986877730178</v>
+        <v>-0.2791130687401324</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2412887724335827</v>
+        <v>0.2169291191343432</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9238074273377208</v>
+        <v>0.8890793532286851</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1519024207030686</v>
+        <v>-0.1461915894765134</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.4193855608009316</v>
+        <v>0.4525598655238022</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.438281815146784</v>
+        <v>1.425285668974916</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.502773639029256</v>
+        <v>1.407418501497209</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.73676177626044</v>
+        <v>2.600468230804438</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.633003253223135</v>
+        <v>5.608756338232119</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4455113270958052</v>
+        <v>0.521433272380419</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.420368960705863</v>
+        <v>1.41765395713068</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.359487876642144</v>
+        <v>2.408735771740562</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5734396384085141</v>
+        <v>0.572183638917905</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.44902746669174</v>
+        <v>1.465072027047764</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.939298676262972</v>
+        <v>2.894867736689577</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.675760819970461</v>
+        <v>3.221428300443213</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.939448741863079</v>
+        <v>7.623641704914647</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15.50087620948162</v>
+        <v>15.30240434760552</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.050636385117697</v>
+        <v>2.092656559704117</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>6.85191703019569</v>
+        <v>8.402747606237149</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>19.14786136735533</v>
+        <v>19.44766856672528</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.800293624437519</v>
+        <v>3.944244880276971</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>9.810549042333697</v>
+        <v>9.920630939924667</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>19.32193148664457</v>
+        <v>19.55918818908423</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>17.40505872787336</v>
+        <v>16.40049527262433</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>20.71063873206289</v>
+        <v>21.39160782061368</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>26.66486093650088</v>
+        <v>26.72419544257668</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.42455503560955</v>
+        <v>11.81797605399314</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>20.32037114525918</v>
+        <v>21.30683545696504</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>28.64703173753472</v>
+        <v>28.95077114084979</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.94674037875501</v>
+        <v>11.6171502237705</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>18.90167976009462</v>
+        <v>19.73818638788893</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>26.70958975304806</v>
+        <v>26.73668272893078</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2979860338946463</v>
+        <v>0.1697577588020244</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.576802337430784</v>
+        <v>0.7109496460916361</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.54113066264844</v>
+        <v>1.476910215485806</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.04764534254359758</v>
+        <v>0.2477779076415164</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.8201178591179887</v>
+        <v>1.00115439636309</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.926178256231793</v>
+        <v>2.197571266867405</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4921968564084179</v>
+        <v>0.542644801792319</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>1.291940321320243</v>
+        <v>1.40434415184813</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>2.523962082060313</v>
+        <v>2.492110691580184</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>8.71151478442669</v>
+        <v>6.905100507911001</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>8.49697496201172</v>
+        <v>9.004339442517793</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>12.39471510167461</v>
+        <v>12.81950890406129</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>4.13632135551479</v>
+        <v>4.521848626393919</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>7.468371109996227</v>
+        <v>7.6980748223953</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>10.1554717781668</v>
+        <v>11.82159260380664</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>3.734137855063604</v>
+        <v>3.823226304117789</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>5.945493562882539</v>
+        <v>6.421924789610301</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>9.472845440671534</v>
+        <v>9.175616819169907</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.486291825061228</v>
+        <v>-1.476686078347489</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.778923000227006</v>
+        <v>3.529342201715935</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>15.68669584614539</v>
+        <v>16.07307615454705</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.2520115992970791</v>
+        <v>-0.1468309821201025</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>5.664407021981723</v>
+        <v>5.176958863520902</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>17.27649243291746</v>
+        <v>17.28367544790551</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.1690254446853033</v>
+        <v>-0.1802328613729249</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>5.511404483680331</v>
+        <v>5.351660969426978</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>17.24605969839809</v>
+        <v>17.41527973344109</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.439589950549212</v>
+        <v>3.515618903159788</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>8.923463059683275</v>
+        <v>8.817808289181272</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>20.95077284746037</v>
+        <v>21.25661887566854</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.588139760298859</v>
+        <v>4.667952781248319</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>10.75525449256643</v>
+        <v>10.38123911956776</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>21.86629620282104</v>
+        <v>21.83651234343903</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.291958101401832</v>
+        <v>3.386249757938879</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>9.040739613053415</v>
+        <v>8.967030587964764</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>20.92873364844394</v>
+        <v>20.94065643348189</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.2177699410837339</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.6479475120432654</v>
+        <v>0.6479475120432652</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.07294072068451402</v>
@@ -2258,7 +2258,7 @@
         <v>0.2777081081345091</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.6713531970327298</v>
+        <v>0.6713531970327296</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.05560341065887644</v>
@@ -2267,7 +2267,7 @@
         <v>0.248903313010204</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.6598179277388446</v>
+        <v>0.6598179277388444</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.04907023945144963</v>
+        <v>-0.04971639823256911</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1241241250785922</v>
+        <v>0.1148553722799119</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5272640982101771</v>
+        <v>0.5376926319802112</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.008033626445875446</v>
+        <v>-0.005499310140030152</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1860575892806607</v>
+        <v>0.1699153792678572</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5571389562227407</v>
+        <v>0.5728912625706246</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.005749015599717582</v>
+        <v>-0.006072782807646946</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1840853026940864</v>
+        <v>0.1780024134684781</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.5775004153825448</v>
+        <v>0.581525358839762</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1252910560918169</v>
+        <v>0.1281418857903524</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3252564529329789</v>
+        <v>0.3182201073715984</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7751802661118652</v>
+        <v>0.7862566675695639</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1664540644334776</v>
+        <v>0.1678709843241079</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3810705885400841</v>
+        <v>0.3740432459955883</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7866424987964648</v>
+        <v>0.7998651280780362</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1169310497151085</v>
+        <v>0.1211311441161289</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3207478341824329</v>
+        <v>0.3172211318018622</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.75060093300055</v>
+        <v>0.7565867391065166</v>
       </c>
     </row>
     <row r="52">
